--- a/data-raw/mark_gard_data/instream2017update.xlsx
+++ b/data-raw/mark_gard_data/instream2017update.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FallRun" sheetId="1" state="visible" r:id="rId2"/>
@@ -480,17 +480,17 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.53571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,14 +1377,15 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.53571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +1457,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,14 +1780,15 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.53571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
